--- a/web/Content/Files/address_format_template.xlsx
+++ b/web/Content/Files/address_format_template.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\work\entt.ost\web\Content\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Addresses" sheetId="1" r:id="rId3"/>
+    <sheet name="Addresses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -55,12 +63,6 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>603-123456789</t>
-  </si>
-  <si>
-    <t>6032-23456789</t>
-  </si>
-  <si>
     <t>Pos Malaysia Bhd.</t>
   </si>
   <si>
@@ -80,12 +82,6 @@
   </si>
   <si>
     <t>Hawa</t>
-  </si>
-  <si>
-    <t>603-26920694</t>
-  </si>
-  <si>
-    <t>603-223456799</t>
   </si>
   <si>
     <t>Bespoke Technology Sdn. Bhd.</t>
@@ -108,25 +104,34 @@
   <si>
     <t>47400</t>
   </si>
+  <si>
+    <t>603123456789</t>
+  </si>
+  <si>
+    <t>60326920694</t>
+  </si>
+  <si>
+    <t>603223456799</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
@@ -136,7 +141,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -151,6 +156,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -165,56 +171,321 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M977"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.13"/>
-    <col customWidth="1" min="2" max="2" width="18.75"/>
-    <col customWidth="1" min="3" max="3" width="12.0"/>
-    <col customWidth="1" min="4" max="4" width="21.13"/>
-    <col customWidth="1" min="5" max="5" width="23.5"/>
-    <col customWidth="1" min="6" max="6" width="15.38"/>
-    <col customWidth="1" min="7" max="7" width="12.13"/>
-    <col customWidth="1" min="8" max="8" width="24.75"/>
-    <col customWidth="1" min="9" max="10" width="10.5"/>
-    <col customWidth="1" min="11" max="11" width="6.5"/>
-    <col customWidth="1" min="12" max="12" width="7.5"/>
-    <col customWidth="1" min="13" max="13" width="22.88"/>
-    <col customWidth="1" min="14" max="26" width="7.63"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -255,7 +526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -264,78 +535,78 @@
         <v>adam@pos.com.my</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>HYPERLINK("mailto:hawa@bespoke.com.my","hawa@bespoke.com.my")</f>
         <v>hawa@bespoke.com.my</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -350,7 +621,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -365,7 +636,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -380,7 +651,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -395,7 +666,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -410,7 +681,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -425,7 +696,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -440,7 +711,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -455,7 +726,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -470,7 +741,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -485,7 +756,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -500,7 +771,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -515,7 +786,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -530,7 +801,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -545,7 +816,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -560,7 +831,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -575,7 +846,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -590,7 +861,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -605,7 +876,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -620,7 +891,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -635,7 +906,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -650,7 +921,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -665,7 +936,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -680,7 +951,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -695,7 +966,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -710,7 +981,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -725,7 +996,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -740,7 +1011,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -755,7 +1026,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -770,7 +1041,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -785,7 +1056,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -800,7 +1071,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -815,7 +1086,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -830,7 +1101,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -845,7 +1116,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -860,7 +1131,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -875,7 +1146,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -890,7 +1161,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -905,7 +1176,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -920,7 +1191,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -935,7 +1206,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -950,7 +1221,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -965,7 +1236,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -980,7 +1251,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -995,7 +1266,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1010,7 +1281,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1025,7 +1296,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1040,7 +1311,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1055,7 +1326,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1070,7 +1341,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1085,7 +1356,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1100,7 +1371,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1115,7 +1386,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1130,7 +1401,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1145,7 +1416,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1160,7 +1431,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1175,7 +1446,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1190,7 +1461,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1205,7 +1476,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1220,7 +1491,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1235,7 +1506,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1250,7 +1521,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1265,7 +1536,7 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1280,7 +1551,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1295,7 +1566,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1310,7 +1581,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1325,7 +1596,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1340,7 +1611,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1355,7 +1626,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1370,7 +1641,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1385,7 +1656,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1400,7 +1671,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1415,7 +1686,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1430,7 +1701,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1445,7 +1716,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1460,7 +1731,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1475,7 +1746,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1490,7 +1761,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1505,7 +1776,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1520,7 +1791,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1535,7 +1806,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1550,7 +1821,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1565,7 +1836,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1580,7 +1851,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1595,7 +1866,7 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1610,7 +1881,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1625,7 +1896,7 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1640,7 +1911,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1655,7 +1926,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1670,7 +1941,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1685,7 +1956,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1700,7 +1971,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1715,7 +1986,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1730,7 +2001,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1745,7 +2016,7 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1760,7 +2031,7 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1775,7 +2046,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1790,7 +2061,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1805,7 +2076,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1820,7 +2091,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1835,7 +2106,7 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1850,7 +2121,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1865,7 +2136,7 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1880,7 +2151,7 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1895,7 +2166,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1910,7 +2181,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1925,7 +2196,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1940,7 +2211,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1955,7 +2226,7 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1970,7 +2241,7 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1985,7 +2256,7 @@
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2000,7 +2271,7 @@
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2015,7 +2286,7 @@
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2030,7 +2301,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2045,7 +2316,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2060,7 +2331,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2075,7 +2346,7 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2090,7 +2361,7 @@
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2105,7 +2376,7 @@
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2120,7 +2391,7 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2135,7 +2406,7 @@
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2150,7 +2421,7 @@
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2165,7 +2436,7 @@
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2180,7 +2451,7 @@
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2195,7 +2466,7 @@
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2210,7 +2481,7 @@
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2225,7 +2496,7 @@
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2240,7 +2511,7 @@
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2255,7 +2526,7 @@
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2270,7 +2541,7 @@
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2285,7 +2556,7 @@
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2300,7 +2571,7 @@
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2315,7 +2586,7 @@
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2330,7 +2601,7 @@
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2345,7 +2616,7 @@
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2360,7 +2631,7 @@
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2375,7 +2646,7 @@
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2390,7 +2661,7 @@
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2405,7 +2676,7 @@
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2420,7 +2691,7 @@
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2435,7 +2706,7 @@
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2450,7 +2721,7 @@
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2465,7 +2736,7 @@
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2480,7 +2751,7 @@
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2495,7 +2766,7 @@
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2510,7 +2781,7 @@
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2525,7 +2796,7 @@
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2540,7 +2811,7 @@
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2555,7 +2826,7 @@
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2570,7 +2841,7 @@
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2585,7 +2856,7 @@
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2600,7 +2871,7 @@
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2615,7 +2886,7 @@
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2630,7 +2901,7 @@
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2645,7 +2916,7 @@
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2660,7 +2931,7 @@
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2675,7 +2946,7 @@
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2690,7 +2961,7 @@
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2705,7 +2976,7 @@
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2720,7 +2991,7 @@
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2735,7 +3006,7 @@
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2750,7 +3021,7 @@
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2765,7 +3036,7 @@
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2780,7 +3051,7 @@
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2795,7 +3066,7 @@
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2810,7 +3081,7 @@
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2825,7 +3096,7 @@
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2840,7 +3111,7 @@
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2855,7 +3126,7 @@
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2870,7 +3141,7 @@
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2885,7 +3156,7 @@
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2900,7 +3171,7 @@
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2915,7 +3186,7 @@
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2930,7 +3201,7 @@
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2945,7 +3216,7 @@
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2960,7 +3231,7 @@
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2975,7 +3246,7 @@
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2990,7 +3261,7 @@
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3005,7 +3276,7 @@
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3020,7 +3291,7 @@
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3035,7 +3306,7 @@
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3050,7 +3321,7 @@
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3065,7 +3336,7 @@
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3080,7 +3351,7 @@
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3095,7 +3366,7 @@
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3110,7 +3381,7 @@
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3125,7 +3396,7 @@
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3140,7 +3411,7 @@
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3155,7 +3426,7 @@
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3170,7 +3441,7 @@
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3185,7 +3456,7 @@
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3200,7 +3471,7 @@
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3215,7 +3486,7 @@
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3230,7 +3501,7 @@
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3245,7 +3516,7 @@
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3260,7 +3531,7 @@
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3275,7 +3546,7 @@
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3290,7 +3561,7 @@
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3305,7 +3576,7 @@
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3320,7 +3591,7 @@
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3335,7 +3606,7 @@
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3350,7 +3621,7 @@
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3365,7 +3636,7 @@
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3380,7 +3651,7 @@
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3395,7 +3666,7 @@
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3410,7 +3681,7 @@
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3425,7 +3696,7 @@
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3440,7 +3711,7 @@
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3455,7 +3726,7 @@
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3470,7 +3741,7 @@
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3485,7 +3756,7 @@
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3500,7 +3771,7 @@
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3515,7 +3786,7 @@
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3530,7 +3801,7 @@
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3545,7 +3816,7 @@
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3560,7 +3831,7 @@
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3575,7 +3846,7 @@
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3590,7 +3861,7 @@
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3605,7 +3876,7 @@
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3620,7 +3891,7 @@
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3635,7 +3906,7 @@
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -3650,7 +3921,7 @@
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -3665,7 +3936,7 @@
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -3680,7 +3951,7 @@
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -3695,7 +3966,7 @@
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -3710,7 +3981,7 @@
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -3725,7 +3996,7 @@
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -3740,7 +4011,7 @@
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -3755,7 +4026,7 @@
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -3770,7 +4041,7 @@
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -3785,7 +4056,7 @@
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -3800,7 +4071,7 @@
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -3815,7 +4086,7 @@
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -3830,7 +4101,7 @@
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -3845,7 +4116,7 @@
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -3860,7 +4131,7 @@
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -3875,7 +4146,7 @@
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -3890,7 +4161,7 @@
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -3905,7 +4176,7 @@
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -3920,7 +4191,7 @@
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -3935,7 +4206,7 @@
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -3950,7 +4221,7 @@
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -3965,7 +4236,7 @@
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -3980,7 +4251,7 @@
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -3995,7 +4266,7 @@
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -4010,7 +4281,7 @@
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -4025,7 +4296,7 @@
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -4040,7 +4311,7 @@
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -4055,7 +4326,7 @@
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -4070,7 +4341,7 @@
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -4085,7 +4356,7 @@
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -4100,7 +4371,7 @@
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -4115,7 +4386,7 @@
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -4130,7 +4401,7 @@
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -4145,7 +4416,7 @@
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -4160,7 +4431,7 @@
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -4175,7 +4446,7 @@
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -4190,7 +4461,7 @@
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -4205,7 +4476,7 @@
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -4220,7 +4491,7 @@
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -4235,7 +4506,7 @@
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -4250,7 +4521,7 @@
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -4265,7 +4536,7 @@
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -4280,7 +4551,7 @@
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -4295,7 +4566,7 @@
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -4310,7 +4581,7 @@
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -4325,7 +4596,7 @@
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -4340,7 +4611,7 @@
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -4355,7 +4626,7 @@
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -4370,7 +4641,7 @@
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -4385,7 +4656,7 @@
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -4400,7 +4671,7 @@
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -4415,7 +4686,7 @@
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -4430,7 +4701,7 @@
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -4445,7 +4716,7 @@
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -4460,7 +4731,7 @@
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -4475,7 +4746,7 @@
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -4490,7 +4761,7 @@
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -4505,7 +4776,7 @@
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -4520,7 +4791,7 @@
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -4535,7 +4806,7 @@
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -4550,7 +4821,7 @@
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -4565,7 +4836,7 @@
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -4580,7 +4851,7 @@
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -4595,7 +4866,7 @@
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -4610,7 +4881,7 @@
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -4625,7 +4896,7 @@
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -4640,7 +4911,7 @@
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -4655,7 +4926,7 @@
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -4670,7 +4941,7 @@
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -4685,7 +4956,7 @@
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -4700,7 +4971,7 @@
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -4715,7 +4986,7 @@
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -4730,7 +5001,7 @@
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -4745,7 +5016,7 @@
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -4760,7 +5031,7 @@
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -4775,7 +5046,7 @@
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -4790,7 +5061,7 @@
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -4805,7 +5076,7 @@
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -4820,7 +5091,7 @@
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -4835,7 +5106,7 @@
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -4850,7 +5121,7 @@
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -4865,7 +5136,7 @@
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -4880,7 +5151,7 @@
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -4895,7 +5166,7 @@
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -4910,7 +5181,7 @@
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -4925,7 +5196,7 @@
       <c r="L309" s="2"/>
       <c r="M309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -4940,7 +5211,7 @@
       <c r="L310" s="2"/>
       <c r="M310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -4955,7 +5226,7 @@
       <c r="L311" s="2"/>
       <c r="M311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -4970,7 +5241,7 @@
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -4985,7 +5256,7 @@
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -5000,7 +5271,7 @@
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -5015,7 +5286,7 @@
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -5030,7 +5301,7 @@
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -5045,7 +5316,7 @@
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -5060,7 +5331,7 @@
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -5075,7 +5346,7 @@
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -5090,7 +5361,7 @@
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -5105,7 +5376,7 @@
       <c r="L321" s="2"/>
       <c r="M321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -5120,7 +5391,7 @@
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -5135,7 +5406,7 @@
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -5150,7 +5421,7 @@
       <c r="L324" s="2"/>
       <c r="M324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -5165,7 +5436,7 @@
       <c r="L325" s="2"/>
       <c r="M325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -5180,7 +5451,7 @@
       <c r="L326" s="2"/>
       <c r="M326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -5195,7 +5466,7 @@
       <c r="L327" s="2"/>
       <c r="M327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -5210,7 +5481,7 @@
       <c r="L328" s="2"/>
       <c r="M328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -5225,7 +5496,7 @@
       <c r="L329" s="2"/>
       <c r="M329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -5240,7 +5511,7 @@
       <c r="L330" s="2"/>
       <c r="M330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -5255,7 +5526,7 @@
       <c r="L331" s="2"/>
       <c r="M331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -5270,7 +5541,7 @@
       <c r="L332" s="2"/>
       <c r="M332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -5285,7 +5556,7 @@
       <c r="L333" s="2"/>
       <c r="M333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -5300,7 +5571,7 @@
       <c r="L334" s="2"/>
       <c r="M334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -5315,7 +5586,7 @@
       <c r="L335" s="2"/>
       <c r="M335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -5330,7 +5601,7 @@
       <c r="L336" s="2"/>
       <c r="M336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -5345,7 +5616,7 @@
       <c r="L337" s="2"/>
       <c r="M337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -5360,7 +5631,7 @@
       <c r="L338" s="2"/>
       <c r="M338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -5375,7 +5646,7 @@
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -5390,7 +5661,7 @@
       <c r="L340" s="2"/>
       <c r="M340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -5405,7 +5676,7 @@
       <c r="L341" s="2"/>
       <c r="M341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -5420,7 +5691,7 @@
       <c r="L342" s="2"/>
       <c r="M342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -5435,7 +5706,7 @@
       <c r="L343" s="2"/>
       <c r="M343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -5450,7 +5721,7 @@
       <c r="L344" s="2"/>
       <c r="M344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -5465,7 +5736,7 @@
       <c r="L345" s="2"/>
       <c r="M345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -5480,7 +5751,7 @@
       <c r="L346" s="2"/>
       <c r="M346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -5495,7 +5766,7 @@
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -5510,7 +5781,7 @@
       <c r="L348" s="2"/>
       <c r="M348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -5525,7 +5796,7 @@
       <c r="L349" s="2"/>
       <c r="M349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -5540,7 +5811,7 @@
       <c r="L350" s="2"/>
       <c r="M350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -5555,7 +5826,7 @@
       <c r="L351" s="2"/>
       <c r="M351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -5570,7 +5841,7 @@
       <c r="L352" s="2"/>
       <c r="M352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -5585,7 +5856,7 @@
       <c r="L353" s="2"/>
       <c r="M353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -5600,7 +5871,7 @@
       <c r="L354" s="2"/>
       <c r="M354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -5615,7 +5886,7 @@
       <c r="L355" s="2"/>
       <c r="M355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -5630,7 +5901,7 @@
       <c r="L356" s="2"/>
       <c r="M356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -5645,7 +5916,7 @@
       <c r="L357" s="2"/>
       <c r="M357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -5660,7 +5931,7 @@
       <c r="L358" s="2"/>
       <c r="M358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -5675,7 +5946,7 @@
       <c r="L359" s="2"/>
       <c r="M359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -5690,7 +5961,7 @@
       <c r="L360" s="2"/>
       <c r="M360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -5705,7 +5976,7 @@
       <c r="L361" s="2"/>
       <c r="M361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -5720,7 +5991,7 @@
       <c r="L362" s="2"/>
       <c r="M362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -5735,7 +6006,7 @@
       <c r="L363" s="2"/>
       <c r="M363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -5750,7 +6021,7 @@
       <c r="L364" s="2"/>
       <c r="M364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -5765,7 +6036,7 @@
       <c r="L365" s="2"/>
       <c r="M365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -5780,7 +6051,7 @@
       <c r="L366" s="2"/>
       <c r="M366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -5795,7 +6066,7 @@
       <c r="L367" s="2"/>
       <c r="M367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -5810,7 +6081,7 @@
       <c r="L368" s="2"/>
       <c r="M368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -5825,7 +6096,7 @@
       <c r="L369" s="2"/>
       <c r="M369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -5840,7 +6111,7 @@
       <c r="L370" s="2"/>
       <c r="M370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -5855,7 +6126,7 @@
       <c r="L371" s="2"/>
       <c r="M371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -5870,7 +6141,7 @@
       <c r="L372" s="2"/>
       <c r="M372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -5885,7 +6156,7 @@
       <c r="L373" s="2"/>
       <c r="M373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -5900,7 +6171,7 @@
       <c r="L374" s="2"/>
       <c r="M374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -5915,7 +6186,7 @@
       <c r="L375" s="2"/>
       <c r="M375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -5930,7 +6201,7 @@
       <c r="L376" s="2"/>
       <c r="M376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -5945,7 +6216,7 @@
       <c r="L377" s="2"/>
       <c r="M377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -5960,7 +6231,7 @@
       <c r="L378" s="2"/>
       <c r="M378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -5975,7 +6246,7 @@
       <c r="L379" s="2"/>
       <c r="M379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -5990,7 +6261,7 @@
       <c r="L380" s="2"/>
       <c r="M380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -6005,7 +6276,7 @@
       <c r="L381" s="2"/>
       <c r="M381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -6020,7 +6291,7 @@
       <c r="L382" s="2"/>
       <c r="M382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -6035,7 +6306,7 @@
       <c r="L383" s="2"/>
       <c r="M383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -6050,7 +6321,7 @@
       <c r="L384" s="2"/>
       <c r="M384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -6065,7 +6336,7 @@
       <c r="L385" s="2"/>
       <c r="M385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -6080,7 +6351,7 @@
       <c r="L386" s="2"/>
       <c r="M386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -6095,7 +6366,7 @@
       <c r="L387" s="2"/>
       <c r="M387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -6110,7 +6381,7 @@
       <c r="L388" s="2"/>
       <c r="M388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -6125,7 +6396,7 @@
       <c r="L389" s="2"/>
       <c r="M389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -6140,7 +6411,7 @@
       <c r="L390" s="2"/>
       <c r="M390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -6155,7 +6426,7 @@
       <c r="L391" s="2"/>
       <c r="M391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -6170,7 +6441,7 @@
       <c r="L392" s="2"/>
       <c r="M392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -6185,7 +6456,7 @@
       <c r="L393" s="2"/>
       <c r="M393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -6200,7 +6471,7 @@
       <c r="L394" s="2"/>
       <c r="M394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -6215,7 +6486,7 @@
       <c r="L395" s="2"/>
       <c r="M395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -6230,7 +6501,7 @@
       <c r="L396" s="2"/>
       <c r="M396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -6245,7 +6516,7 @@
       <c r="L397" s="2"/>
       <c r="M397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -6260,7 +6531,7 @@
       <c r="L398" s="2"/>
       <c r="M398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -6275,7 +6546,7 @@
       <c r="L399" s="2"/>
       <c r="M399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -6290,7 +6561,7 @@
       <c r="L400" s="2"/>
       <c r="M400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -6305,7 +6576,7 @@
       <c r="L401" s="2"/>
       <c r="M401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -6320,7 +6591,7 @@
       <c r="L402" s="2"/>
       <c r="M402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -6335,7 +6606,7 @@
       <c r="L403" s="2"/>
       <c r="M403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -6350,7 +6621,7 @@
       <c r="L404" s="2"/>
       <c r="M404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -6365,7 +6636,7 @@
       <c r="L405" s="2"/>
       <c r="M405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -6380,7 +6651,7 @@
       <c r="L406" s="2"/>
       <c r="M406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -6395,7 +6666,7 @@
       <c r="L407" s="2"/>
       <c r="M407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -6410,7 +6681,7 @@
       <c r="L408" s="2"/>
       <c r="M408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -6425,7 +6696,7 @@
       <c r="L409" s="2"/>
       <c r="M409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -6440,7 +6711,7 @@
       <c r="L410" s="2"/>
       <c r="M410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -6455,7 +6726,7 @@
       <c r="L411" s="2"/>
       <c r="M411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -6470,7 +6741,7 @@
       <c r="L412" s="2"/>
       <c r="M412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -6485,7 +6756,7 @@
       <c r="L413" s="2"/>
       <c r="M413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -6500,7 +6771,7 @@
       <c r="L414" s="2"/>
       <c r="M414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -6515,7 +6786,7 @@
       <c r="L415" s="2"/>
       <c r="M415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -6530,7 +6801,7 @@
       <c r="L416" s="2"/>
       <c r="M416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -6545,7 +6816,7 @@
       <c r="L417" s="2"/>
       <c r="M417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -6560,7 +6831,7 @@
       <c r="L418" s="2"/>
       <c r="M418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -6575,7 +6846,7 @@
       <c r="L419" s="2"/>
       <c r="M419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -6590,7 +6861,7 @@
       <c r="L420" s="2"/>
       <c r="M420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -6605,7 +6876,7 @@
       <c r="L421" s="2"/>
       <c r="M421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -6620,7 +6891,7 @@
       <c r="L422" s="2"/>
       <c r="M422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -6635,7 +6906,7 @@
       <c r="L423" s="2"/>
       <c r="M423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -6650,7 +6921,7 @@
       <c r="L424" s="2"/>
       <c r="M424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -6665,7 +6936,7 @@
       <c r="L425" s="2"/>
       <c r="M425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -6680,7 +6951,7 @@
       <c r="L426" s="2"/>
       <c r="M426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -6695,7 +6966,7 @@
       <c r="L427" s="2"/>
       <c r="M427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -6710,7 +6981,7 @@
       <c r="L428" s="2"/>
       <c r="M428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -6725,7 +6996,7 @@
       <c r="L429" s="2"/>
       <c r="M429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -6740,7 +7011,7 @@
       <c r="L430" s="2"/>
       <c r="M430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -6755,7 +7026,7 @@
       <c r="L431" s="2"/>
       <c r="M431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -6770,7 +7041,7 @@
       <c r="L432" s="2"/>
       <c r="M432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -6785,7 +7056,7 @@
       <c r="L433" s="2"/>
       <c r="M433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -6800,7 +7071,7 @@
       <c r="L434" s="2"/>
       <c r="M434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -6815,7 +7086,7 @@
       <c r="L435" s="2"/>
       <c r="M435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -6830,7 +7101,7 @@
       <c r="L436" s="2"/>
       <c r="M436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -6845,7 +7116,7 @@
       <c r="L437" s="2"/>
       <c r="M437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -6860,7 +7131,7 @@
       <c r="L438" s="2"/>
       <c r="M438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -6875,7 +7146,7 @@
       <c r="L439" s="2"/>
       <c r="M439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -6890,7 +7161,7 @@
       <c r="L440" s="2"/>
       <c r="M440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -6905,7 +7176,7 @@
       <c r="L441" s="2"/>
       <c r="M441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -6920,7 +7191,7 @@
       <c r="L442" s="2"/>
       <c r="M442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -6935,7 +7206,7 @@
       <c r="L443" s="2"/>
       <c r="M443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -6950,7 +7221,7 @@
       <c r="L444" s="2"/>
       <c r="M444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -6965,7 +7236,7 @@
       <c r="L445" s="2"/>
       <c r="M445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -6980,7 +7251,7 @@
       <c r="L446" s="2"/>
       <c r="M446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -6995,7 +7266,7 @@
       <c r="L447" s="2"/>
       <c r="M447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -7010,7 +7281,7 @@
       <c r="L448" s="2"/>
       <c r="M448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -7025,7 +7296,7 @@
       <c r="L449" s="2"/>
       <c r="M449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -7040,7 +7311,7 @@
       <c r="L450" s="2"/>
       <c r="M450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -7055,7 +7326,7 @@
       <c r="L451" s="2"/>
       <c r="M451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -7070,7 +7341,7 @@
       <c r="L452" s="2"/>
       <c r="M452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -7085,7 +7356,7 @@
       <c r="L453" s="2"/>
       <c r="M453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -7100,7 +7371,7 @@
       <c r="L454" s="2"/>
       <c r="M454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -7115,7 +7386,7 @@
       <c r="L455" s="2"/>
       <c r="M455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -7130,7 +7401,7 @@
       <c r="L456" s="2"/>
       <c r="M456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -7145,7 +7416,7 @@
       <c r="L457" s="2"/>
       <c r="M457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -7160,7 +7431,7 @@
       <c r="L458" s="2"/>
       <c r="M458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -7175,7 +7446,7 @@
       <c r="L459" s="2"/>
       <c r="M459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -7190,7 +7461,7 @@
       <c r="L460" s="2"/>
       <c r="M460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -7205,7 +7476,7 @@
       <c r="L461" s="2"/>
       <c r="M461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -7220,7 +7491,7 @@
       <c r="L462" s="2"/>
       <c r="M462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -7235,7 +7506,7 @@
       <c r="L463" s="2"/>
       <c r="M463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -7250,7 +7521,7 @@
       <c r="L464" s="2"/>
       <c r="M464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -7265,7 +7536,7 @@
       <c r="L465" s="2"/>
       <c r="M465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -7280,7 +7551,7 @@
       <c r="L466" s="2"/>
       <c r="M466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -7295,7 +7566,7 @@
       <c r="L467" s="2"/>
       <c r="M467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -7310,7 +7581,7 @@
       <c r="L468" s="2"/>
       <c r="M468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -7325,7 +7596,7 @@
       <c r="L469" s="2"/>
       <c r="M469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -7340,7 +7611,7 @@
       <c r="L470" s="2"/>
       <c r="M470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -7355,7 +7626,7 @@
       <c r="L471" s="2"/>
       <c r="M471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -7370,7 +7641,7 @@
       <c r="L472" s="2"/>
       <c r="M472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -7385,7 +7656,7 @@
       <c r="L473" s="2"/>
       <c r="M473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -7400,7 +7671,7 @@
       <c r="L474" s="2"/>
       <c r="M474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -7415,7 +7686,7 @@
       <c r="L475" s="2"/>
       <c r="M475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -7430,7 +7701,7 @@
       <c r="L476" s="2"/>
       <c r="M476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -7445,7 +7716,7 @@
       <c r="L477" s="2"/>
       <c r="M477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -7460,7 +7731,7 @@
       <c r="L478" s="2"/>
       <c r="M478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -7475,7 +7746,7 @@
       <c r="L479" s="2"/>
       <c r="M479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -7490,7 +7761,7 @@
       <c r="L480" s="2"/>
       <c r="M480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -7505,7 +7776,7 @@
       <c r="L481" s="2"/>
       <c r="M481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -7520,7 +7791,7 @@
       <c r="L482" s="2"/>
       <c r="M482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -7535,7 +7806,7 @@
       <c r="L483" s="2"/>
       <c r="M483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -7550,7 +7821,7 @@
       <c r="L484" s="2"/>
       <c r="M484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -7565,7 +7836,7 @@
       <c r="L485" s="2"/>
       <c r="M485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -7580,7 +7851,7 @@
       <c r="L486" s="2"/>
       <c r="M486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -7595,7 +7866,7 @@
       <c r="L487" s="2"/>
       <c r="M487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -7610,7 +7881,7 @@
       <c r="L488" s="2"/>
       <c r="M488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -7625,7 +7896,7 @@
       <c r="L489" s="2"/>
       <c r="M489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -7640,7 +7911,7 @@
       <c r="L490" s="2"/>
       <c r="M490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -7655,7 +7926,7 @@
       <c r="L491" s="2"/>
       <c r="M491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -7670,7 +7941,7 @@
       <c r="L492" s="2"/>
       <c r="M492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -7685,7 +7956,7 @@
       <c r="L493" s="2"/>
       <c r="M493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -7700,7 +7971,7 @@
       <c r="L494" s="2"/>
       <c r="M494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -7715,7 +7986,7 @@
       <c r="L495" s="2"/>
       <c r="M495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -7730,7 +8001,7 @@
       <c r="L496" s="2"/>
       <c r="M496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -7745,7 +8016,7 @@
       <c r="L497" s="2"/>
       <c r="M497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -7760,7 +8031,7 @@
       <c r="L498" s="2"/>
       <c r="M498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -7775,7 +8046,7 @@
       <c r="L499" s="2"/>
       <c r="M499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -7790,7 +8061,7 @@
       <c r="L500" s="2"/>
       <c r="M500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -7805,7 +8076,7 @@
       <c r="L501" s="2"/>
       <c r="M501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -7820,7 +8091,7 @@
       <c r="L502" s="2"/>
       <c r="M502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -7835,7 +8106,7 @@
       <c r="L503" s="2"/>
       <c r="M503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -7850,7 +8121,7 @@
       <c r="L504" s="2"/>
       <c r="M504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -7865,7 +8136,7 @@
       <c r="L505" s="2"/>
       <c r="M505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -7880,7 +8151,7 @@
       <c r="L506" s="2"/>
       <c r="M506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -7895,7 +8166,7 @@
       <c r="L507" s="2"/>
       <c r="M507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -7910,7 +8181,7 @@
       <c r="L508" s="2"/>
       <c r="M508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -7925,7 +8196,7 @@
       <c r="L509" s="2"/>
       <c r="M509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -7940,7 +8211,7 @@
       <c r="L510" s="2"/>
       <c r="M510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -7955,7 +8226,7 @@
       <c r="L511" s="2"/>
       <c r="M511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -7970,7 +8241,7 @@
       <c r="L512" s="2"/>
       <c r="M512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -7985,7 +8256,7 @@
       <c r="L513" s="2"/>
       <c r="M513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -8000,7 +8271,7 @@
       <c r="L514" s="2"/>
       <c r="M514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -8015,7 +8286,7 @@
       <c r="L515" s="2"/>
       <c r="M515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -8030,7 +8301,7 @@
       <c r="L516" s="2"/>
       <c r="M516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -8045,7 +8316,7 @@
       <c r="L517" s="2"/>
       <c r="M517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -8060,7 +8331,7 @@
       <c r="L518" s="2"/>
       <c r="M518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -8075,7 +8346,7 @@
       <c r="L519" s="2"/>
       <c r="M519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -8090,7 +8361,7 @@
       <c r="L520" s="2"/>
       <c r="M520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -8105,7 +8376,7 @@
       <c r="L521" s="2"/>
       <c r="M521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -8120,7 +8391,7 @@
       <c r="L522" s="2"/>
       <c r="M522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -8135,7 +8406,7 @@
       <c r="L523" s="2"/>
       <c r="M523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -8150,7 +8421,7 @@
       <c r="L524" s="2"/>
       <c r="M524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -8165,7 +8436,7 @@
       <c r="L525" s="2"/>
       <c r="M525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -8180,7 +8451,7 @@
       <c r="L526" s="2"/>
       <c r="M526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -8195,7 +8466,7 @@
       <c r="L527" s="2"/>
       <c r="M527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -8210,7 +8481,7 @@
       <c r="L528" s="2"/>
       <c r="M528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -8225,7 +8496,7 @@
       <c r="L529" s="2"/>
       <c r="M529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -8240,7 +8511,7 @@
       <c r="L530" s="2"/>
       <c r="M530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -8255,7 +8526,7 @@
       <c r="L531" s="2"/>
       <c r="M531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -8270,7 +8541,7 @@
       <c r="L532" s="2"/>
       <c r="M532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -8285,7 +8556,7 @@
       <c r="L533" s="2"/>
       <c r="M533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -8300,7 +8571,7 @@
       <c r="L534" s="2"/>
       <c r="M534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -8315,7 +8586,7 @@
       <c r="L535" s="2"/>
       <c r="M535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -8330,7 +8601,7 @@
       <c r="L536" s="2"/>
       <c r="M536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -8345,7 +8616,7 @@
       <c r="L537" s="2"/>
       <c r="M537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -8360,7 +8631,7 @@
       <c r="L538" s="2"/>
       <c r="M538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -8375,7 +8646,7 @@
       <c r="L539" s="2"/>
       <c r="M539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -8390,7 +8661,7 @@
       <c r="L540" s="2"/>
       <c r="M540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -8405,7 +8676,7 @@
       <c r="L541" s="2"/>
       <c r="M541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -8420,7 +8691,7 @@
       <c r="L542" s="2"/>
       <c r="M542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -8435,7 +8706,7 @@
       <c r="L543" s="2"/>
       <c r="M543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -8450,7 +8721,7 @@
       <c r="L544" s="2"/>
       <c r="M544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -8465,7 +8736,7 @@
       <c r="L545" s="2"/>
       <c r="M545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -8480,7 +8751,7 @@
       <c r="L546" s="2"/>
       <c r="M546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -8495,7 +8766,7 @@
       <c r="L547" s="2"/>
       <c r="M547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -8510,7 +8781,7 @@
       <c r="L548" s="2"/>
       <c r="M548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -8525,7 +8796,7 @@
       <c r="L549" s="2"/>
       <c r="M549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -8540,7 +8811,7 @@
       <c r="L550" s="2"/>
       <c r="M550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -8555,7 +8826,7 @@
       <c r="L551" s="2"/>
       <c r="M551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -8570,7 +8841,7 @@
       <c r="L552" s="2"/>
       <c r="M552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -8585,7 +8856,7 @@
       <c r="L553" s="2"/>
       <c r="M553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -8600,7 +8871,7 @@
       <c r="L554" s="2"/>
       <c r="M554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -8615,7 +8886,7 @@
       <c r="L555" s="2"/>
       <c r="M555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -8630,7 +8901,7 @@
       <c r="L556" s="2"/>
       <c r="M556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -8645,7 +8916,7 @@
       <c r="L557" s="2"/>
       <c r="M557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -8660,7 +8931,7 @@
       <c r="L558" s="2"/>
       <c r="M558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -8675,7 +8946,7 @@
       <c r="L559" s="2"/>
       <c r="M559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -8690,7 +8961,7 @@
       <c r="L560" s="2"/>
       <c r="M560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -8705,7 +8976,7 @@
       <c r="L561" s="2"/>
       <c r="M561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -8720,7 +8991,7 @@
       <c r="L562" s="2"/>
       <c r="M562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -8735,7 +9006,7 @@
       <c r="L563" s="2"/>
       <c r="M563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -8750,7 +9021,7 @@
       <c r="L564" s="2"/>
       <c r="M564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -8765,7 +9036,7 @@
       <c r="L565" s="2"/>
       <c r="M565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -8780,7 +9051,7 @@
       <c r="L566" s="2"/>
       <c r="M566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -8795,7 +9066,7 @@
       <c r="L567" s="2"/>
       <c r="M567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -8810,7 +9081,7 @@
       <c r="L568" s="2"/>
       <c r="M568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -8825,7 +9096,7 @@
       <c r="L569" s="2"/>
       <c r="M569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -8840,7 +9111,7 @@
       <c r="L570" s="2"/>
       <c r="M570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -8855,7 +9126,7 @@
       <c r="L571" s="2"/>
       <c r="M571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -8870,7 +9141,7 @@
       <c r="L572" s="2"/>
       <c r="M572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -8885,7 +9156,7 @@
       <c r="L573" s="2"/>
       <c r="M573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -8900,7 +9171,7 @@
       <c r="L574" s="2"/>
       <c r="M574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -8915,7 +9186,7 @@
       <c r="L575" s="2"/>
       <c r="M575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -8930,7 +9201,7 @@
       <c r="L576" s="2"/>
       <c r="M576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -8945,7 +9216,7 @@
       <c r="L577" s="2"/>
       <c r="M577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -8960,7 +9231,7 @@
       <c r="L578" s="2"/>
       <c r="M578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -8975,7 +9246,7 @@
       <c r="L579" s="2"/>
       <c r="M579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -8990,7 +9261,7 @@
       <c r="L580" s="2"/>
       <c r="M580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -9005,7 +9276,7 @@
       <c r="L581" s="2"/>
       <c r="M581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -9020,7 +9291,7 @@
       <c r="L582" s="2"/>
       <c r="M582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -9035,7 +9306,7 @@
       <c r="L583" s="2"/>
       <c r="M583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -9050,7 +9321,7 @@
       <c r="L584" s="2"/>
       <c r="M584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -9065,7 +9336,7 @@
       <c r="L585" s="2"/>
       <c r="M585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -9080,7 +9351,7 @@
       <c r="L586" s="2"/>
       <c r="M586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -9095,7 +9366,7 @@
       <c r="L587" s="2"/>
       <c r="M587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -9110,7 +9381,7 @@
       <c r="L588" s="2"/>
       <c r="M588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -9125,7 +9396,7 @@
       <c r="L589" s="2"/>
       <c r="M589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -9140,7 +9411,7 @@
       <c r="L590" s="2"/>
       <c r="M590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -9155,7 +9426,7 @@
       <c r="L591" s="2"/>
       <c r="M591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -9170,7 +9441,7 @@
       <c r="L592" s="2"/>
       <c r="M592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -9185,7 +9456,7 @@
       <c r="L593" s="2"/>
       <c r="M593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -9200,7 +9471,7 @@
       <c r="L594" s="2"/>
       <c r="M594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -9215,7 +9486,7 @@
       <c r="L595" s="2"/>
       <c r="M595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -9230,7 +9501,7 @@
       <c r="L596" s="2"/>
       <c r="M596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -9245,7 +9516,7 @@
       <c r="L597" s="2"/>
       <c r="M597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -9260,7 +9531,7 @@
       <c r="L598" s="2"/>
       <c r="M598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -9275,7 +9546,7 @@
       <c r="L599" s="2"/>
       <c r="M599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -9290,7 +9561,7 @@
       <c r="L600" s="2"/>
       <c r="M600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -9305,7 +9576,7 @@
       <c r="L601" s="2"/>
       <c r="M601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -9320,7 +9591,7 @@
       <c r="L602" s="2"/>
       <c r="M602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -9335,7 +9606,7 @@
       <c r="L603" s="2"/>
       <c r="M603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -9350,7 +9621,7 @@
       <c r="L604" s="2"/>
       <c r="M604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -9365,7 +9636,7 @@
       <c r="L605" s="2"/>
       <c r="M605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -9380,7 +9651,7 @@
       <c r="L606" s="2"/>
       <c r="M606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -9395,7 +9666,7 @@
       <c r="L607" s="2"/>
       <c r="M607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -9410,7 +9681,7 @@
       <c r="L608" s="2"/>
       <c r="M608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -9425,7 +9696,7 @@
       <c r="L609" s="2"/>
       <c r="M609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -9440,7 +9711,7 @@
       <c r="L610" s="2"/>
       <c r="M610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -9455,7 +9726,7 @@
       <c r="L611" s="2"/>
       <c r="M611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -9470,7 +9741,7 @@
       <c r="L612" s="2"/>
       <c r="M612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -9485,7 +9756,7 @@
       <c r="L613" s="2"/>
       <c r="M613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -9500,7 +9771,7 @@
       <c r="L614" s="2"/>
       <c r="M614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -9515,7 +9786,7 @@
       <c r="L615" s="2"/>
       <c r="M615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -9530,7 +9801,7 @@
       <c r="L616" s="2"/>
       <c r="M616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -9545,7 +9816,7 @@
       <c r="L617" s="2"/>
       <c r="M617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -9560,7 +9831,7 @@
       <c r="L618" s="2"/>
       <c r="M618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -9575,7 +9846,7 @@
       <c r="L619" s="2"/>
       <c r="M619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -9590,7 +9861,7 @@
       <c r="L620" s="2"/>
       <c r="M620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -9605,7 +9876,7 @@
       <c r="L621" s="2"/>
       <c r="M621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -9620,7 +9891,7 @@
       <c r="L622" s="2"/>
       <c r="M622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -9635,7 +9906,7 @@
       <c r="L623" s="2"/>
       <c r="M623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -9650,7 +9921,7 @@
       <c r="L624" s="2"/>
       <c r="M624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -9665,7 +9936,7 @@
       <c r="L625" s="2"/>
       <c r="M625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -9680,7 +9951,7 @@
       <c r="L626" s="2"/>
       <c r="M626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -9695,7 +9966,7 @@
       <c r="L627" s="2"/>
       <c r="M627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -9710,7 +9981,7 @@
       <c r="L628" s="2"/>
       <c r="M628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -9725,7 +9996,7 @@
       <c r="L629" s="2"/>
       <c r="M629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -9740,7 +10011,7 @@
       <c r="L630" s="2"/>
       <c r="M630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -9755,7 +10026,7 @@
       <c r="L631" s="2"/>
       <c r="M631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -9770,7 +10041,7 @@
       <c r="L632" s="2"/>
       <c r="M632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -9785,7 +10056,7 @@
       <c r="L633" s="2"/>
       <c r="M633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -9800,7 +10071,7 @@
       <c r="L634" s="2"/>
       <c r="M634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -9815,7 +10086,7 @@
       <c r="L635" s="2"/>
       <c r="M635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -9830,7 +10101,7 @@
       <c r="L636" s="2"/>
       <c r="M636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -9845,7 +10116,7 @@
       <c r="L637" s="2"/>
       <c r="M637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -9860,7 +10131,7 @@
       <c r="L638" s="2"/>
       <c r="M638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -9875,7 +10146,7 @@
       <c r="L639" s="2"/>
       <c r="M639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -9890,7 +10161,7 @@
       <c r="L640" s="2"/>
       <c r="M640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -9905,7 +10176,7 @@
       <c r="L641" s="2"/>
       <c r="M641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -9920,7 +10191,7 @@
       <c r="L642" s="2"/>
       <c r="M642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -9935,7 +10206,7 @@
       <c r="L643" s="2"/>
       <c r="M643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -9950,7 +10221,7 @@
       <c r="L644" s="2"/>
       <c r="M644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -9965,7 +10236,7 @@
       <c r="L645" s="2"/>
       <c r="M645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -9980,7 +10251,7 @@
       <c r="L646" s="2"/>
       <c r="M646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -9995,7 +10266,7 @@
       <c r="L647" s="2"/>
       <c r="M647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -10010,7 +10281,7 @@
       <c r="L648" s="2"/>
       <c r="M648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -10025,7 +10296,7 @@
       <c r="L649" s="2"/>
       <c r="M649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -10040,7 +10311,7 @@
       <c r="L650" s="2"/>
       <c r="M650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -10055,7 +10326,7 @@
       <c r="L651" s="2"/>
       <c r="M651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -10070,7 +10341,7 @@
       <c r="L652" s="2"/>
       <c r="M652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -10085,7 +10356,7 @@
       <c r="L653" s="2"/>
       <c r="M653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -10100,7 +10371,7 @@
       <c r="L654" s="2"/>
       <c r="M654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -10115,7 +10386,7 @@
       <c r="L655" s="2"/>
       <c r="M655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -10130,7 +10401,7 @@
       <c r="L656" s="2"/>
       <c r="M656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -10145,7 +10416,7 @@
       <c r="L657" s="2"/>
       <c r="M657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -10160,7 +10431,7 @@
       <c r="L658" s="2"/>
       <c r="M658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -10175,7 +10446,7 @@
       <c r="L659" s="2"/>
       <c r="M659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -10190,7 +10461,7 @@
       <c r="L660" s="2"/>
       <c r="M660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -10205,7 +10476,7 @@
       <c r="L661" s="2"/>
       <c r="M661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -10220,7 +10491,7 @@
       <c r="L662" s="2"/>
       <c r="M662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -10235,7 +10506,7 @@
       <c r="L663" s="2"/>
       <c r="M663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -10250,7 +10521,7 @@
       <c r="L664" s="2"/>
       <c r="M664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -10265,7 +10536,7 @@
       <c r="L665" s="2"/>
       <c r="M665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -10280,7 +10551,7 @@
       <c r="L666" s="2"/>
       <c r="M666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -10295,7 +10566,7 @@
       <c r="L667" s="2"/>
       <c r="M667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -10310,7 +10581,7 @@
       <c r="L668" s="2"/>
       <c r="M668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -10325,7 +10596,7 @@
       <c r="L669" s="2"/>
       <c r="M669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -10340,7 +10611,7 @@
       <c r="L670" s="2"/>
       <c r="M670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -10355,7 +10626,7 @@
       <c r="L671" s="2"/>
       <c r="M671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -10370,7 +10641,7 @@
       <c r="L672" s="2"/>
       <c r="M672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -10385,7 +10656,7 @@
       <c r="L673" s="2"/>
       <c r="M673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -10400,7 +10671,7 @@
       <c r="L674" s="2"/>
       <c r="M674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -10415,7 +10686,7 @@
       <c r="L675" s="2"/>
       <c r="M675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -10430,7 +10701,7 @@
       <c r="L676" s="2"/>
       <c r="M676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -10445,7 +10716,7 @@
       <c r="L677" s="2"/>
       <c r="M677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -10460,7 +10731,7 @@
       <c r="L678" s="2"/>
       <c r="M678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -10475,7 +10746,7 @@
       <c r="L679" s="2"/>
       <c r="M679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -10490,7 +10761,7 @@
       <c r="L680" s="2"/>
       <c r="M680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -10505,7 +10776,7 @@
       <c r="L681" s="2"/>
       <c r="M681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -10520,7 +10791,7 @@
       <c r="L682" s="2"/>
       <c r="M682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -10535,7 +10806,7 @@
       <c r="L683" s="2"/>
       <c r="M683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -10550,7 +10821,7 @@
       <c r="L684" s="2"/>
       <c r="M684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -10565,7 +10836,7 @@
       <c r="L685" s="2"/>
       <c r="M685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -10580,7 +10851,7 @@
       <c r="L686" s="2"/>
       <c r="M686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -10595,7 +10866,7 @@
       <c r="L687" s="2"/>
       <c r="M687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -10610,7 +10881,7 @@
       <c r="L688" s="2"/>
       <c r="M688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -10625,7 +10896,7 @@
       <c r="L689" s="2"/>
       <c r="M689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -10640,7 +10911,7 @@
       <c r="L690" s="2"/>
       <c r="M690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -10655,7 +10926,7 @@
       <c r="L691" s="2"/>
       <c r="M691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -10670,7 +10941,7 @@
       <c r="L692" s="2"/>
       <c r="M692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -10685,7 +10956,7 @@
       <c r="L693" s="2"/>
       <c r="M693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -10700,7 +10971,7 @@
       <c r="L694" s="2"/>
       <c r="M694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -10715,7 +10986,7 @@
       <c r="L695" s="2"/>
       <c r="M695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -10730,7 +11001,7 @@
       <c r="L696" s="2"/>
       <c r="M696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -10745,7 +11016,7 @@
       <c r="L697" s="2"/>
       <c r="M697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -10760,7 +11031,7 @@
       <c r="L698" s="2"/>
       <c r="M698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -10775,7 +11046,7 @@
       <c r="L699" s="2"/>
       <c r="M699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -10790,7 +11061,7 @@
       <c r="L700" s="2"/>
       <c r="M700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -10805,7 +11076,7 @@
       <c r="L701" s="2"/>
       <c r="M701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -10820,7 +11091,7 @@
       <c r="L702" s="2"/>
       <c r="M702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -10835,7 +11106,7 @@
       <c r="L703" s="2"/>
       <c r="M703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -10850,7 +11121,7 @@
       <c r="L704" s="2"/>
       <c r="M704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -10865,7 +11136,7 @@
       <c r="L705" s="2"/>
       <c r="M705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -10880,7 +11151,7 @@
       <c r="L706" s="2"/>
       <c r="M706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -10895,7 +11166,7 @@
       <c r="L707" s="2"/>
       <c r="M707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -10910,7 +11181,7 @@
       <c r="L708" s="2"/>
       <c r="M708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -10925,7 +11196,7 @@
       <c r="L709" s="2"/>
       <c r="M709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -10940,7 +11211,7 @@
       <c r="L710" s="2"/>
       <c r="M710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -10955,7 +11226,7 @@
       <c r="L711" s="2"/>
       <c r="M711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -10970,7 +11241,7 @@
       <c r="L712" s="2"/>
       <c r="M712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -10985,7 +11256,7 @@
       <c r="L713" s="2"/>
       <c r="M713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -11000,7 +11271,7 @@
       <c r="L714" s="2"/>
       <c r="M714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -11015,7 +11286,7 @@
       <c r="L715" s="2"/>
       <c r="M715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -11030,7 +11301,7 @@
       <c r="L716" s="2"/>
       <c r="M716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -11045,7 +11316,7 @@
       <c r="L717" s="2"/>
       <c r="M717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -11060,7 +11331,7 @@
       <c r="L718" s="2"/>
       <c r="M718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -11075,7 +11346,7 @@
       <c r="L719" s="2"/>
       <c r="M719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -11090,7 +11361,7 @@
       <c r="L720" s="2"/>
       <c r="M720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -11105,7 +11376,7 @@
       <c r="L721" s="2"/>
       <c r="M721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -11120,7 +11391,7 @@
       <c r="L722" s="2"/>
       <c r="M722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -11135,7 +11406,7 @@
       <c r="L723" s="2"/>
       <c r="M723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -11150,7 +11421,7 @@
       <c r="L724" s="2"/>
       <c r="M724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -11165,7 +11436,7 @@
       <c r="L725" s="2"/>
       <c r="M725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -11180,7 +11451,7 @@
       <c r="L726" s="2"/>
       <c r="M726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -11195,7 +11466,7 @@
       <c r="L727" s="2"/>
       <c r="M727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -11210,7 +11481,7 @@
       <c r="L728" s="2"/>
       <c r="M728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -11225,7 +11496,7 @@
       <c r="L729" s="2"/>
       <c r="M729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -11240,7 +11511,7 @@
       <c r="L730" s="2"/>
       <c r="M730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -11255,7 +11526,7 @@
       <c r="L731" s="2"/>
       <c r="M731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -11270,7 +11541,7 @@
       <c r="L732" s="2"/>
       <c r="M732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -11285,7 +11556,7 @@
       <c r="L733" s="2"/>
       <c r="M733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -11300,7 +11571,7 @@
       <c r="L734" s="2"/>
       <c r="M734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -11315,7 +11586,7 @@
       <c r="L735" s="2"/>
       <c r="M735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -11330,7 +11601,7 @@
       <c r="L736" s="2"/>
       <c r="M736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -11345,7 +11616,7 @@
       <c r="L737" s="2"/>
       <c r="M737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -11360,7 +11631,7 @@
       <c r="L738" s="2"/>
       <c r="M738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -11375,7 +11646,7 @@
       <c r="L739" s="2"/>
       <c r="M739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -11390,7 +11661,7 @@
       <c r="L740" s="2"/>
       <c r="M740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -11405,7 +11676,7 @@
       <c r="L741" s="2"/>
       <c r="M741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -11420,7 +11691,7 @@
       <c r="L742" s="2"/>
       <c r="M742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -11435,7 +11706,7 @@
       <c r="L743" s="2"/>
       <c r="M743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -11450,7 +11721,7 @@
       <c r="L744" s="2"/>
       <c r="M744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -11465,7 +11736,7 @@
       <c r="L745" s="2"/>
       <c r="M745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -11480,7 +11751,7 @@
       <c r="L746" s="2"/>
       <c r="M746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -11495,7 +11766,7 @@
       <c r="L747" s="2"/>
       <c r="M747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -11510,7 +11781,7 @@
       <c r="L748" s="2"/>
       <c r="M748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -11525,7 +11796,7 @@
       <c r="L749" s="2"/>
       <c r="M749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -11540,7 +11811,7 @@
       <c r="L750" s="2"/>
       <c r="M750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -11555,7 +11826,7 @@
       <c r="L751" s="2"/>
       <c r="M751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -11570,7 +11841,7 @@
       <c r="L752" s="2"/>
       <c r="M752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -11585,7 +11856,7 @@
       <c r="L753" s="2"/>
       <c r="M753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -11600,7 +11871,7 @@
       <c r="L754" s="2"/>
       <c r="M754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -11615,7 +11886,7 @@
       <c r="L755" s="2"/>
       <c r="M755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -11630,7 +11901,7 @@
       <c r="L756" s="2"/>
       <c r="M756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -11645,7 +11916,7 @@
       <c r="L757" s="2"/>
       <c r="M757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -11660,7 +11931,7 @@
       <c r="L758" s="2"/>
       <c r="M758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -11675,7 +11946,7 @@
       <c r="L759" s="2"/>
       <c r="M759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -11690,7 +11961,7 @@
       <c r="L760" s="2"/>
       <c r="M760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -11705,7 +11976,7 @@
       <c r="L761" s="2"/>
       <c r="M761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -11720,7 +11991,7 @@
       <c r="L762" s="2"/>
       <c r="M762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -11735,7 +12006,7 @@
       <c r="L763" s="2"/>
       <c r="M763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -11750,7 +12021,7 @@
       <c r="L764" s="2"/>
       <c r="M764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -11765,7 +12036,7 @@
       <c r="L765" s="2"/>
       <c r="M765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -11780,7 +12051,7 @@
       <c r="L766" s="2"/>
       <c r="M766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -11795,7 +12066,7 @@
       <c r="L767" s="2"/>
       <c r="M767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -11810,7 +12081,7 @@
       <c r="L768" s="2"/>
       <c r="M768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -11825,7 +12096,7 @@
       <c r="L769" s="2"/>
       <c r="M769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -11840,7 +12111,7 @@
       <c r="L770" s="2"/>
       <c r="M770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -11855,7 +12126,7 @@
       <c r="L771" s="2"/>
       <c r="M771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -11870,7 +12141,7 @@
       <c r="L772" s="2"/>
       <c r="M772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -11885,7 +12156,7 @@
       <c r="L773" s="2"/>
       <c r="M773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -11900,7 +12171,7 @@
       <c r="L774" s="2"/>
       <c r="M774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -11915,7 +12186,7 @@
       <c r="L775" s="2"/>
       <c r="M775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -11930,7 +12201,7 @@
       <c r="L776" s="2"/>
       <c r="M776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -11945,7 +12216,7 @@
       <c r="L777" s="2"/>
       <c r="M777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -11960,7 +12231,7 @@
       <c r="L778" s="2"/>
       <c r="M778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -11975,7 +12246,7 @@
       <c r="L779" s="2"/>
       <c r="M779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -11990,7 +12261,7 @@
       <c r="L780" s="2"/>
       <c r="M780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -12005,7 +12276,7 @@
       <c r="L781" s="2"/>
       <c r="M781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -12020,7 +12291,7 @@
       <c r="L782" s="2"/>
       <c r="M782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -12035,7 +12306,7 @@
       <c r="L783" s="2"/>
       <c r="M783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -12050,7 +12321,7 @@
       <c r="L784" s="2"/>
       <c r="M784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -12065,7 +12336,7 @@
       <c r="L785" s="2"/>
       <c r="M785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -12080,7 +12351,7 @@
       <c r="L786" s="2"/>
       <c r="M786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -12095,7 +12366,7 @@
       <c r="L787" s="2"/>
       <c r="M787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -12110,7 +12381,7 @@
       <c r="L788" s="2"/>
       <c r="M788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -12125,7 +12396,7 @@
       <c r="L789" s="2"/>
       <c r="M789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -12140,7 +12411,7 @@
       <c r="L790" s="2"/>
       <c r="M790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -12155,7 +12426,7 @@
       <c r="L791" s="2"/>
       <c r="M791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -12170,7 +12441,7 @@
       <c r="L792" s="2"/>
       <c r="M792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -12185,7 +12456,7 @@
       <c r="L793" s="2"/>
       <c r="M793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -12200,7 +12471,7 @@
       <c r="L794" s="2"/>
       <c r="M794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -12215,7 +12486,7 @@
       <c r="L795" s="2"/>
       <c r="M795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -12230,7 +12501,7 @@
       <c r="L796" s="2"/>
       <c r="M796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -12245,7 +12516,7 @@
       <c r="L797" s="2"/>
       <c r="M797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -12260,7 +12531,7 @@
       <c r="L798" s="2"/>
       <c r="M798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -12275,7 +12546,7 @@
       <c r="L799" s="2"/>
       <c r="M799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -12290,7 +12561,7 @@
       <c r="L800" s="2"/>
       <c r="M800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -12305,7 +12576,7 @@
       <c r="L801" s="2"/>
       <c r="M801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -12320,7 +12591,7 @@
       <c r="L802" s="2"/>
       <c r="M802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -12335,7 +12606,7 @@
       <c r="L803" s="2"/>
       <c r="M803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -12350,7 +12621,7 @@
       <c r="L804" s="2"/>
       <c r="M804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -12365,7 +12636,7 @@
       <c r="L805" s="2"/>
       <c r="M805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -12380,7 +12651,7 @@
       <c r="L806" s="2"/>
       <c r="M806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -12395,7 +12666,7 @@
       <c r="L807" s="2"/>
       <c r="M807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -12410,7 +12681,7 @@
       <c r="L808" s="2"/>
       <c r="M808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -12425,7 +12696,7 @@
       <c r="L809" s="2"/>
       <c r="M809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -12440,7 +12711,7 @@
       <c r="L810" s="2"/>
       <c r="M810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -12455,7 +12726,7 @@
       <c r="L811" s="2"/>
       <c r="M811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -12470,7 +12741,7 @@
       <c r="L812" s="2"/>
       <c r="M812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -12485,7 +12756,7 @@
       <c r="L813" s="2"/>
       <c r="M813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -12500,7 +12771,7 @@
       <c r="L814" s="2"/>
       <c r="M814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -12515,7 +12786,7 @@
       <c r="L815" s="2"/>
       <c r="M815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -12530,7 +12801,7 @@
       <c r="L816" s="2"/>
       <c r="M816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -12545,7 +12816,7 @@
       <c r="L817" s="2"/>
       <c r="M817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -12560,7 +12831,7 @@
       <c r="L818" s="2"/>
       <c r="M818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -12575,7 +12846,7 @@
       <c r="L819" s="2"/>
       <c r="M819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -12590,7 +12861,7 @@
       <c r="L820" s="2"/>
       <c r="M820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -12605,7 +12876,7 @@
       <c r="L821" s="2"/>
       <c r="M821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -12620,7 +12891,7 @@
       <c r="L822" s="2"/>
       <c r="M822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -12635,7 +12906,7 @@
       <c r="L823" s="2"/>
       <c r="M823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -12650,7 +12921,7 @@
       <c r="L824" s="2"/>
       <c r="M824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -12665,7 +12936,7 @@
       <c r="L825" s="2"/>
       <c r="M825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -12680,7 +12951,7 @@
       <c r="L826" s="2"/>
       <c r="M826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -12695,7 +12966,7 @@
       <c r="L827" s="2"/>
       <c r="M827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -12710,7 +12981,7 @@
       <c r="L828" s="2"/>
       <c r="M828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -12725,7 +12996,7 @@
       <c r="L829" s="2"/>
       <c r="M829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -12740,7 +13011,7 @@
       <c r="L830" s="2"/>
       <c r="M830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -12755,7 +13026,7 @@
       <c r="L831" s="2"/>
       <c r="M831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -12770,7 +13041,7 @@
       <c r="L832" s="2"/>
       <c r="M832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -12785,7 +13056,7 @@
       <c r="L833" s="2"/>
       <c r="M833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -12800,7 +13071,7 @@
       <c r="L834" s="2"/>
       <c r="M834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -12815,7 +13086,7 @@
       <c r="L835" s="2"/>
       <c r="M835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -12830,7 +13101,7 @@
       <c r="L836" s="2"/>
       <c r="M836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -12845,7 +13116,7 @@
       <c r="L837" s="2"/>
       <c r="M837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -12860,7 +13131,7 @@
       <c r="L838" s="2"/>
       <c r="M838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -12875,7 +13146,7 @@
       <c r="L839" s="2"/>
       <c r="M839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -12890,7 +13161,7 @@
       <c r="L840" s="2"/>
       <c r="M840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -12905,7 +13176,7 @@
       <c r="L841" s="2"/>
       <c r="M841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -12920,7 +13191,7 @@
       <c r="L842" s="2"/>
       <c r="M842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -12935,7 +13206,7 @@
       <c r="L843" s="2"/>
       <c r="M843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -12950,7 +13221,7 @@
       <c r="L844" s="2"/>
       <c r="M844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -12965,7 +13236,7 @@
       <c r="L845" s="2"/>
       <c r="M845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -12980,7 +13251,7 @@
       <c r="L846" s="2"/>
       <c r="M846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -12995,7 +13266,7 @@
       <c r="L847" s="2"/>
       <c r="M847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -13010,7 +13281,7 @@
       <c r="L848" s="2"/>
       <c r="M848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -13025,7 +13296,7 @@
       <c r="L849" s="2"/>
       <c r="M849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -13040,7 +13311,7 @@
       <c r="L850" s="2"/>
       <c r="M850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -13055,7 +13326,7 @@
       <c r="L851" s="2"/>
       <c r="M851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -13070,7 +13341,7 @@
       <c r="L852" s="2"/>
       <c r="M852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -13085,7 +13356,7 @@
       <c r="L853" s="2"/>
       <c r="M853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -13100,7 +13371,7 @@
       <c r="L854" s="2"/>
       <c r="M854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -13115,7 +13386,7 @@
       <c r="L855" s="2"/>
       <c r="M855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -13130,7 +13401,7 @@
       <c r="L856" s="2"/>
       <c r="M856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -13145,7 +13416,7 @@
       <c r="L857" s="2"/>
       <c r="M857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -13160,7 +13431,7 @@
       <c r="L858" s="2"/>
       <c r="M858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -13175,7 +13446,7 @@
       <c r="L859" s="2"/>
       <c r="M859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -13190,7 +13461,7 @@
       <c r="L860" s="2"/>
       <c r="M860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -13205,7 +13476,7 @@
       <c r="L861" s="2"/>
       <c r="M861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -13220,7 +13491,7 @@
       <c r="L862" s="2"/>
       <c r="M862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -13235,7 +13506,7 @@
       <c r="L863" s="2"/>
       <c r="M863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -13250,7 +13521,7 @@
       <c r="L864" s="2"/>
       <c r="M864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -13265,7 +13536,7 @@
       <c r="L865" s="2"/>
       <c r="M865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -13280,7 +13551,7 @@
       <c r="L866" s="2"/>
       <c r="M866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -13295,7 +13566,7 @@
       <c r="L867" s="2"/>
       <c r="M867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -13310,7 +13581,7 @@
       <c r="L868" s="2"/>
       <c r="M868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -13325,7 +13596,7 @@
       <c r="L869" s="2"/>
       <c r="M869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -13340,7 +13611,7 @@
       <c r="L870" s="2"/>
       <c r="M870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -13355,7 +13626,7 @@
       <c r="L871" s="2"/>
       <c r="M871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -13370,7 +13641,7 @@
       <c r="L872" s="2"/>
       <c r="M872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -13385,7 +13656,7 @@
       <c r="L873" s="2"/>
       <c r="M873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -13400,7 +13671,7 @@
       <c r="L874" s="2"/>
       <c r="M874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -13415,7 +13686,7 @@
       <c r="L875" s="2"/>
       <c r="M875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -13430,7 +13701,7 @@
       <c r="L876" s="2"/>
       <c r="M876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -13445,7 +13716,7 @@
       <c r="L877" s="2"/>
       <c r="M877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -13460,7 +13731,7 @@
       <c r="L878" s="2"/>
       <c r="M878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -13475,7 +13746,7 @@
       <c r="L879" s="2"/>
       <c r="M879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -13490,7 +13761,7 @@
       <c r="L880" s="2"/>
       <c r="M880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -13505,7 +13776,7 @@
       <c r="L881" s="2"/>
       <c r="M881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -13520,7 +13791,7 @@
       <c r="L882" s="2"/>
       <c r="M882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -13535,7 +13806,7 @@
       <c r="L883" s="2"/>
       <c r="M883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -13550,7 +13821,7 @@
       <c r="L884" s="2"/>
       <c r="M884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -13565,7 +13836,7 @@
       <c r="L885" s="2"/>
       <c r="M885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -13580,7 +13851,7 @@
       <c r="L886" s="2"/>
       <c r="M886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -13595,7 +13866,7 @@
       <c r="L887" s="2"/>
       <c r="M887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -13610,7 +13881,7 @@
       <c r="L888" s="2"/>
       <c r="M888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -13625,7 +13896,7 @@
       <c r="L889" s="2"/>
       <c r="M889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -13640,7 +13911,7 @@
       <c r="L890" s="2"/>
       <c r="M890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -13655,7 +13926,7 @@
       <c r="L891" s="2"/>
       <c r="M891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -13670,7 +13941,7 @@
       <c r="L892" s="2"/>
       <c r="M892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -13685,7 +13956,7 @@
       <c r="L893" s="2"/>
       <c r="M893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -13700,7 +13971,7 @@
       <c r="L894" s="2"/>
       <c r="M894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -13715,7 +13986,7 @@
       <c r="L895" s="2"/>
       <c r="M895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -13730,7 +14001,7 @@
       <c r="L896" s="2"/>
       <c r="M896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -13745,7 +14016,7 @@
       <c r="L897" s="2"/>
       <c r="M897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -13760,7 +14031,7 @@
       <c r="L898" s="2"/>
       <c r="M898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -13775,7 +14046,7 @@
       <c r="L899" s="2"/>
       <c r="M899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -13790,7 +14061,7 @@
       <c r="L900" s="2"/>
       <c r="M900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -13805,7 +14076,7 @@
       <c r="L901" s="2"/>
       <c r="M901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -13820,7 +14091,7 @@
       <c r="L902" s="2"/>
       <c r="M902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -13835,7 +14106,7 @@
       <c r="L903" s="2"/>
       <c r="M903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -13850,7 +14121,7 @@
       <c r="L904" s="2"/>
       <c r="M904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -13865,7 +14136,7 @@
       <c r="L905" s="2"/>
       <c r="M905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -13880,7 +14151,7 @@
       <c r="L906" s="2"/>
       <c r="M906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -13895,7 +14166,7 @@
       <c r="L907" s="2"/>
       <c r="M907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -13910,7 +14181,7 @@
       <c r="L908" s="2"/>
       <c r="M908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -13925,7 +14196,7 @@
       <c r="L909" s="2"/>
       <c r="M909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -13940,7 +14211,7 @@
       <c r="L910" s="2"/>
       <c r="M910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -13955,7 +14226,7 @@
       <c r="L911" s="2"/>
       <c r="M911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -13970,7 +14241,7 @@
       <c r="L912" s="2"/>
       <c r="M912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -13985,7 +14256,7 @@
       <c r="L913" s="2"/>
       <c r="M913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -14000,7 +14271,7 @@
       <c r="L914" s="2"/>
       <c r="M914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -14015,7 +14286,7 @@
       <c r="L915" s="2"/>
       <c r="M915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -14030,7 +14301,7 @@
       <c r="L916" s="2"/>
       <c r="M916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -14045,7 +14316,7 @@
       <c r="L917" s="2"/>
       <c r="M917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -14060,7 +14331,7 @@
       <c r="L918" s="2"/>
       <c r="M918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -14075,7 +14346,7 @@
       <c r="L919" s="2"/>
       <c r="M919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -14090,7 +14361,7 @@
       <c r="L920" s="2"/>
       <c r="M920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -14105,7 +14376,7 @@
       <c r="L921" s="2"/>
       <c r="M921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -14120,7 +14391,7 @@
       <c r="L922" s="2"/>
       <c r="M922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -14135,7 +14406,7 @@
       <c r="L923" s="2"/>
       <c r="M923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -14150,7 +14421,7 @@
       <c r="L924" s="2"/>
       <c r="M924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -14165,7 +14436,7 @@
       <c r="L925" s="2"/>
       <c r="M925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -14180,7 +14451,7 @@
       <c r="L926" s="2"/>
       <c r="M926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -14195,7 +14466,7 @@
       <c r="L927" s="2"/>
       <c r="M927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -14210,7 +14481,7 @@
       <c r="L928" s="2"/>
       <c r="M928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -14225,7 +14496,7 @@
       <c r="L929" s="2"/>
       <c r="M929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -14240,7 +14511,7 @@
       <c r="L930" s="2"/>
       <c r="M930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -14255,7 +14526,7 @@
       <c r="L931" s="2"/>
       <c r="M931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -14270,7 +14541,7 @@
       <c r="L932" s="2"/>
       <c r="M932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -14285,7 +14556,7 @@
       <c r="L933" s="2"/>
       <c r="M933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -14300,7 +14571,7 @@
       <c r="L934" s="2"/>
       <c r="M934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -14315,7 +14586,7 @@
       <c r="L935" s="2"/>
       <c r="M935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -14330,7 +14601,7 @@
       <c r="L936" s="2"/>
       <c r="M936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -14345,7 +14616,7 @@
       <c r="L937" s="2"/>
       <c r="M937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -14360,7 +14631,7 @@
       <c r="L938" s="2"/>
       <c r="M938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -14375,7 +14646,7 @@
       <c r="L939" s="2"/>
       <c r="M939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -14390,7 +14661,7 @@
       <c r="L940" s="2"/>
       <c r="M940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -14405,7 +14676,7 @@
       <c r="L941" s="2"/>
       <c r="M941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -14420,7 +14691,7 @@
       <c r="L942" s="2"/>
       <c r="M942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -14435,7 +14706,7 @@
       <c r="L943" s="2"/>
       <c r="M943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -14450,7 +14721,7 @@
       <c r="L944" s="2"/>
       <c r="M944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -14465,7 +14736,7 @@
       <c r="L945" s="2"/>
       <c r="M945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -14480,7 +14751,7 @@
       <c r="L946" s="2"/>
       <c r="M946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -14495,7 +14766,7 @@
       <c r="L947" s="2"/>
       <c r="M947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -14510,7 +14781,7 @@
       <c r="L948" s="2"/>
       <c r="M948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -14525,7 +14796,7 @@
       <c r="L949" s="2"/>
       <c r="M949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -14540,7 +14811,7 @@
       <c r="L950" s="2"/>
       <c r="M950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -14555,7 +14826,7 @@
       <c r="L951" s="2"/>
       <c r="M951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -14570,7 +14841,7 @@
       <c r="L952" s="2"/>
       <c r="M952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -14585,7 +14856,7 @@
       <c r="L953" s="2"/>
       <c r="M953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -14600,7 +14871,7 @@
       <c r="L954" s="2"/>
       <c r="M954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -14615,7 +14886,7 @@
       <c r="L955" s="2"/>
       <c r="M955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -14630,7 +14901,7 @@
       <c r="L956" s="2"/>
       <c r="M956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -14645,7 +14916,7 @@
       <c r="L957" s="2"/>
       <c r="M957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -14660,7 +14931,7 @@
       <c r="L958" s="2"/>
       <c r="M958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -14675,7 +14946,7 @@
       <c r="L959" s="2"/>
       <c r="M959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -14690,7 +14961,7 @@
       <c r="L960" s="2"/>
       <c r="M960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -14705,7 +14976,7 @@
       <c r="L961" s="2"/>
       <c r="M961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -14720,7 +14991,7 @@
       <c r="L962" s="2"/>
       <c r="M962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -14735,7 +15006,7 @@
       <c r="L963" s="2"/>
       <c r="M963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -14750,7 +15021,7 @@
       <c r="L964" s="2"/>
       <c r="M964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -14765,7 +15036,7 @@
       <c r="L965" s="2"/>
       <c r="M965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -14780,7 +15051,7 @@
       <c r="L966" s="2"/>
       <c r="M966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -14795,7 +15066,7 @@
       <c r="L967" s="2"/>
       <c r="M967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -14810,7 +15081,7 @@
       <c r="L968" s="2"/>
       <c r="M968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -14825,7 +15096,7 @@
       <c r="L969" s="2"/>
       <c r="M969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -14840,7 +15111,7 @@
       <c r="L970" s="2"/>
       <c r="M970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -14855,7 +15126,7 @@
       <c r="L971" s="2"/>
       <c r="M971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -14870,7 +15141,7 @@
       <c r="L972" s="2"/>
       <c r="M972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -14885,7 +15156,7 @@
       <c r="L973" s="2"/>
       <c r="M973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -14900,7 +15171,7 @@
       <c r="L974" s="2"/>
       <c r="M974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -14915,7 +15186,7 @@
       <c r="L975" s="2"/>
       <c r="M975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -14930,7 +15201,7 @@
       <c r="L976" s="2"/>
       <c r="M976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -14946,6 +15217,6 @@
       <c r="M977" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>